--- a/flows/SLV_fund_flow_data.xlsx
+++ b/flows/SLV_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4492"/>
+  <dimension ref="A1:B4510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45355,6 +45355,186 @@
         <v>-51.5725</v>
       </c>
     </row>
+    <row r="4493">
+      <c r="A4493" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4494" t="n">
+        <v>-25.332</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4495" t="n">
+        <v>-70.71850000000001</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4496" t="n">
+        <v>-14.546</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4497" t="n">
+        <v>115.304</v>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4498" t="n">
+        <v>-29.036</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4499" t="n">
+        <v>-18.396</v>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4501" t="n">
+        <v>-30.131</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4502" t="n">
+        <v>-54.938</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4503" t="n">
+        <v>-54.725</v>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4504" t="n">
+        <v>-102.319</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4505" t="n">
+        <v>-53.016</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4506" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4509" t="n">
+        <v>-24.442</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4510" t="n">
+        <v>-59.384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
